--- a/split_data/standard_in/ChiaYi/mobile2.xlsx
+++ b/split_data/standard_in/ChiaYi/mobile2.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,7 +556,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>朴子市台82線7.55K</t>
+          <t>朴子市台82線7.55公里處</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -591,7 +591,7 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>東石鄉台61線267.7K</t>
+          <t>東石鄉台61線267.7公里處</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -626,7 +626,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>朴子市台19線87.5K</t>
+          <t>朴子市台19線87.5公里處</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -661,7 +661,7 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>六腳鄉台19線81.5K</t>
+          <t>六腳鄉台19線81.5公里處</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -696,7 +696,7 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>六腳鄉台19線72.8K</t>
+          <t>六腳鄉台19線72.8公里處</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -731,7 +731,7 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>朴子市縣道157線31.85K</t>
+          <t>朴子市縣道157線31.85公里處</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -766,7 +766,7 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>六腳鄉縣道157線26.61K</t>
+          <t>六腳鄉縣道157線26.61公里處</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -801,7 +801,7 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>東石鄉157線42.71公里</t>
+          <t>東石鄉縣道157線42.71公里處</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -861,6 +861,41 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>六腳鄉縣道159線0.21公里處</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>測速</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>往東</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>朴子分局</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
